--- a/output/fit_clients/fit_round_209.xlsx
+++ b/output/fit_clients/fit_round_209.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1811011043.544717</v>
+        <v>1804345290.480608</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1110905689757371</v>
+        <v>0.09344538087655255</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02757425301390817</v>
+        <v>0.04013291089818324</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>905505492.0234548</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1592212579.172452</v>
+        <v>2326228259.448231</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1115225258770569</v>
+        <v>0.1565630944012214</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03628859147310774</v>
+        <v>0.03267109214864479</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>796106266.4719911</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4786310883.159013</v>
+        <v>3871812869.617655</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1522808400472029</v>
+        <v>0.1523527191029548</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03256692615876915</v>
+        <v>0.02519236602244539</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>76</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2393155511.443299</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3384932462.755387</v>
+        <v>2993426764.527277</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09360390654776524</v>
+        <v>0.09951589446350033</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03573486706899223</v>
+        <v>0.03342655392387031</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>79</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1692466275.751761</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2345248120.107506</v>
+        <v>2259749184.347012</v>
       </c>
       <c r="F6" t="n">
-        <v>0.113208585663081</v>
+        <v>0.1128962381041527</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05503044457812159</v>
+        <v>0.03669610570228241</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>36</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1172624052.263827</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1982976306.781982</v>
+        <v>1968535609.371425</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06682340411700345</v>
+        <v>0.06772346726304257</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04320480320161463</v>
+        <v>0.0349379763713322</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>63</v>
-      </c>
-      <c r="J7" t="n">
-        <v>991488216.2179955</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3753282747.104012</v>
+        <v>3274875583.770134</v>
       </c>
       <c r="F8" t="n">
-        <v>0.16280948143048</v>
+        <v>0.142882050217431</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02188983180734613</v>
+        <v>0.03284681310471246</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>67</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1876641508.049974</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1693168650.369714</v>
+        <v>1603602249.456823</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1962537748161143</v>
+        <v>0.1367933613833238</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03170114804474453</v>
+        <v>0.034149417549516</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>846584394.3398364</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4911997294.671338</v>
+        <v>4358078217.483294</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1821824961314502</v>
+        <v>0.1373669439144608</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04358176368058572</v>
+        <v>0.03825515852288983</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>88</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2455998739.850194</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2715695690.308878</v>
+        <v>4281234497.013476</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1155277554158439</v>
+        <v>0.1302857513458029</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0427090145332428</v>
+        <v>0.04531142043392276</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>86</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1357847768.295566</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2364519759.065812</v>
+        <v>2223755995.620995</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1922742129833842</v>
+        <v>0.1265235854632212</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04480798870987967</v>
+        <v>0.04623179334316294</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>74</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1182259839.343888</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4070046170.108148</v>
+        <v>3910960725.508696</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08582105164502465</v>
+        <v>0.07672152726571958</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02574605648588033</v>
+        <v>0.02306651552210912</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>70</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2035023136.408399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3783970948.183667</v>
+        <v>2962127541.972629</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1560340894930643</v>
+        <v>0.1483220026144779</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0404598057552094</v>
+        <v>0.02899874299641899</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>68</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1891985451.74881</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1518022269.763117</v>
+        <v>1356962034.947315</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09551933673350177</v>
+        <v>0.09705494395992637</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03342791331097268</v>
+        <v>0.03026535696722271</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>759011224.4493064</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1850182577.518063</v>
+        <v>2045392800.651763</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1018572294799349</v>
+        <v>0.1120487770012377</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04843532833767803</v>
+        <v>0.04920847510265543</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>33</v>
-      </c>
-      <c r="J16" t="n">
-        <v>925091377.6213202</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4317164704.23743</v>
+        <v>5177755046.359765</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1303977046112098</v>
+        <v>0.1117271281327063</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03210698002153087</v>
+        <v>0.04871023413931758</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>61</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2158582371.015367</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2665047144.579323</v>
+        <v>3178838060.494053</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1436867447563564</v>
+        <v>0.1656033232271292</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02317685899885214</v>
+        <v>0.02962188991865632</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>68</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1332523626.743823</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>833513584.8516561</v>
+        <v>836044058.2412699</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1618059385189351</v>
+        <v>0.148175632810838</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01653336011726756</v>
+        <v>0.02569520211147513</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>416756781.1091511</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2300103524.424999</v>
+        <v>1875301941.755854</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1306031189993036</v>
+        <v>0.1409595504429608</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02706597349279018</v>
+        <v>0.02296633815629522</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>34</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1150051756.587694</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2086298323.708247</v>
+        <v>2230897909.425368</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07543403077380052</v>
+        <v>0.08125646388839797</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03097515076996966</v>
+        <v>0.03711282662575058</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>15</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1043149189.546829</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3376693878.340068</v>
+        <v>2519821732.351064</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1167638309554676</v>
+        <v>0.09998079664490538</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05156005420790717</v>
+        <v>0.05263191380431662</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>59</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1688346978.128323</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1329980077.244118</v>
+        <v>1309753111.600517</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1703631955513379</v>
+        <v>0.1834524021220171</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05138397130038344</v>
+        <v>0.03822712632521697</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>664990053.1916366</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3151488105.772558</v>
+        <v>2542134783.993894</v>
       </c>
       <c r="F24" t="n">
-        <v>0.120944104771571</v>
+        <v>0.144893659969305</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03505000063304474</v>
+        <v>0.02293436859497413</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>61</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1575744077.901172</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1096388099.279121</v>
+        <v>1390512168.532635</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08454968665326269</v>
+        <v>0.1168205951659543</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0227237879695756</v>
+        <v>0.02597842807498604</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>548194091.4471</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>968837363.6072619</v>
+        <v>1165041709.833524</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1226437479841747</v>
+        <v>0.1000535347417922</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03026304568645062</v>
+        <v>0.02802533119495073</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>484418646.2899961</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3208396878.504433</v>
+        <v>3280279770.285501</v>
       </c>
       <c r="F27" t="n">
-        <v>0.148141479227123</v>
+        <v>0.137635734384751</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02063455560143816</v>
+        <v>0.02329334935133799</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>48</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1604198488.732703</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3298666546.374465</v>
+        <v>3536123956.872311</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1186109825193201</v>
+        <v>0.09950398201783887</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03504928290795149</v>
+        <v>0.04976945416100254</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>68</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1649333310.311822</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4082729711.400747</v>
+        <v>5345358654.645092</v>
       </c>
       <c r="F29" t="n">
-        <v>0.13808677997089</v>
+        <v>0.1407328644001894</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03096779153515651</v>
+        <v>0.04472080758698028</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>92</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2041364866.802955</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2295200503.523437</v>
+        <v>1465295275.20454</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1128901096396791</v>
+        <v>0.1306597761486466</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03960345478834538</v>
+        <v>0.03115607691354667</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1147600322.85367</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1470170749.506476</v>
+        <v>1453970849.720945</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09006797714994846</v>
+        <v>0.1063837136095232</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04742090500227725</v>
+        <v>0.03718599451940664</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>735085262.6113281</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1410769750.555189</v>
+        <v>1509096954.469315</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09664365525793263</v>
+        <v>0.09624044651318957</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03323977742893412</v>
+        <v>0.02680021301865421</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>705384925.1377592</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2235895975.678355</v>
+        <v>2818815935.287608</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1739713951366278</v>
+        <v>0.162963399822655</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04387749416794157</v>
+        <v>0.05549132760052438</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>63</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1117948048.541982</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1078601358.387192</v>
+        <v>1300095625.036676</v>
       </c>
       <c r="F34" t="n">
-        <v>0.101022061321922</v>
+        <v>0.08789805221916311</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01864403262016995</v>
+        <v>0.01985759861264966</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>539300704.146691</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1096730198.449492</v>
+        <v>1321386119.225323</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1017110015984293</v>
+        <v>0.0820219385499648</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04390201968060353</v>
+        <v>0.04117506206954837</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>548365096.5687499</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2174035553.628558</v>
+        <v>2795900905.226921</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1812702349071831</v>
+        <v>0.1236572871754396</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02632812559398809</v>
+        <v>0.02826995181987975</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>53</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1087017824.884935</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2113219469.649566</v>
+        <v>2874219298.090683</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09190231895946704</v>
+        <v>0.08721858016473492</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02733850137592451</v>
+        <v>0.03318255881785226</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>55</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1056609777.655919</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2116875213.961899</v>
+        <v>1367606512.293957</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1063107579456467</v>
+        <v>0.1137185284789382</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03012506292417072</v>
+        <v>0.02451680281116835</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1058437569.078617</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2050935644.397359</v>
+        <v>1930611245.717971</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1302441874500485</v>
+        <v>0.1350103248975026</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02578214724951349</v>
+        <v>0.02991791360300305</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1025467809.01051</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1266948262.722047</v>
+        <v>1453394717.350543</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1305999901706402</v>
+        <v>0.1014409256388659</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04361742026349102</v>
+        <v>0.0379446863793029</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>633474155.8838828</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2048964336.263477</v>
+        <v>2931088993.779003</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1655266214784885</v>
+        <v>0.1596907842365546</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03591041827910866</v>
+        <v>0.02921872089474794</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>52</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1024482237.545197</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4067956708.34606</v>
+        <v>3605615060.432132</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1118130410547882</v>
+        <v>0.1144958197776064</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02916867342405678</v>
+        <v>0.03842599711604973</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>70</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2033978388.096912</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2267815963.305304</v>
+        <v>2799106841.217837</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1652939067932993</v>
+        <v>0.1743236748968706</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02387037194517063</v>
+        <v>0.01571537790229991</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>71</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1133908053.652052</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1590196060.139841</v>
+        <v>2099422676.370876</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07732820511261448</v>
+        <v>0.09099434217141726</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03275723755236748</v>
+        <v>0.02393741202555835</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>795098054.6224737</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1999250095.56334</v>
+        <v>2001743781.426899</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1256781349860899</v>
+        <v>0.1644665623107948</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05013424045946534</v>
+        <v>0.04836782888337638</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>999625038.5859375</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4794216858.520331</v>
+        <v>5330073029.437055</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1618054191441962</v>
+        <v>0.137097874979842</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05538609120026108</v>
+        <v>0.0549505801513219</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>74</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2397108444.281707</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4806828920.593497</v>
+        <v>4055480061.635306</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1253842520305535</v>
+        <v>0.1321857643136082</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05054929593585471</v>
+        <v>0.03802097745779161</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>56</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2403414505.132417</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3952790368.081988</v>
+        <v>3026652612.092631</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08583365249790191</v>
+        <v>0.08104879221403967</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03285756802867162</v>
+        <v>0.0239439597984696</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>73</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1976395221.160757</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1742733111.026552</v>
+        <v>1231625836.895443</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1256529780027575</v>
+        <v>0.1652781369908231</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03596156032057322</v>
+        <v>0.03170637975867222</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>871366549.7870992</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3318915302.828497</v>
+        <v>3098287250.545048</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1282200077192058</v>
+        <v>0.1425958376000411</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05257717888890712</v>
+        <v>0.03489966880230572</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>71</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1659457688.525263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1346827320.47747</v>
+        <v>1130727118.659039</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1678720479850936</v>
+        <v>0.1576890395714917</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03995149761879903</v>
+        <v>0.04699045511381954</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>673413687.9867039</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4104789821.724602</v>
+        <v>3385526596.877558</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1019672263248487</v>
+        <v>0.1226332479862866</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04806775022017687</v>
+        <v>0.04929900244483618</v>
       </c>
       <c r="H52" t="b">
         <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>86</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2052394961.157524</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2372810265.221604</v>
+        <v>2567934910.311028</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1840748152315862</v>
+        <v>0.1634610339211603</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02465533388389119</v>
+        <v>0.02979754091838224</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>60</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1186405208.34956</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4817247651.454934</v>
+        <v>3633489741.778564</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1424505626150704</v>
+        <v>0.1025864694686148</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04776081777264446</v>
+        <v>0.03664033694934435</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>68</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2408623953.967251</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4105367611.395327</v>
+        <v>4595284289.196458</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1499613450364453</v>
+        <v>0.223111220873079</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02098538120367829</v>
+        <v>0.02581821356001365</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>59</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2052683785.265748</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1472249997.540176</v>
+        <v>1662499252.835171</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1204825675692179</v>
+        <v>0.1121687264303901</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05002630325705933</v>
+        <v>0.05215262906952886</v>
       </c>
       <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>736125045.1390334</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4351589442.541044</v>
+        <v>4487104606.223909</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1458570772333892</v>
+        <v>0.1157064541767076</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02650606701074738</v>
+        <v>0.01840479546778226</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>66</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2175794839.144777</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1195653837.621272</v>
+        <v>1607543752.259267</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1520615435486149</v>
+        <v>0.1814751863450726</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02744562190168923</v>
+        <v>0.02416231710854932</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>597826977.6915637</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3366535814.531022</v>
+        <v>3573889667.334834</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08608651925478138</v>
+        <v>0.1169651524228917</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03334122042318852</v>
+        <v>0.03281423001181109</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>57</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1683267913.728225</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3244325031.971952</v>
+        <v>2828991182.047192</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1927266051320198</v>
+        <v>0.18531316757543</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0282949200048841</v>
+        <v>0.02696316739880274</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>65</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1622162611.943421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3336716822.078832</v>
+        <v>3287100142.41669</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1476442612689777</v>
+        <v>0.137926394449458</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03061279999069662</v>
+        <v>0.02771770278000096</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>73</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1668358359.741212</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1439294348.772019</v>
+        <v>2107740185.183083</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1730682540789785</v>
+        <v>0.1442646925995695</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03699600661756253</v>
+        <v>0.04522755195705404</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>719647148.3291483</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3639065707.422733</v>
+        <v>4775015407.94737</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1079295669675178</v>
+        <v>0.0769006727030432</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03427966006931666</v>
+        <v>0.02971911849528635</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>60</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1819532932.171685</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3611661754.766843</v>
+        <v>5275600398.510314</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1822949212337832</v>
+        <v>0.1215039461892326</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03300083018926698</v>
+        <v>0.02619536970125757</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>65</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1805830885.91313</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4337950795.628108</v>
+        <v>4033464373.50979</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1283391947382826</v>
+        <v>0.1591811668631586</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02136653044875251</v>
+        <v>0.02576304468181157</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>75</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2168975396.195209</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4654551333.008529</v>
+        <v>4321972047.868352</v>
       </c>
       <c r="F66" t="n">
-        <v>0.111978023613232</v>
+        <v>0.1393478976722624</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04660322338406849</v>
+        <v>0.0388551449386591</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>61</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2327275675.112708</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3017278328.896963</v>
+        <v>2209412591.570769</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07600158163847626</v>
+        <v>0.1006319954734326</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03367734875997886</v>
+        <v>0.04266431437340929</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>68</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1508639181.237271</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4734873688.426277</v>
+        <v>5001472193.541603</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1164353733257413</v>
+        <v>0.1369056662419415</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0505128044790046</v>
+        <v>0.04903358998113254</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>68</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2367436884.513864</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1761156392.369906</v>
+        <v>1564269964.140223</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1621414028723629</v>
+        <v>0.1830055755661683</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03978540074615219</v>
+        <v>0.04150801258272792</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>880578170.2412158</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3699187023.073401</v>
+        <v>2715422442.428398</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06356434683919063</v>
+        <v>0.1031674139494331</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0326326267566854</v>
+        <v>0.03110338209820444</v>
       </c>
       <c r="H70" t="b">
         <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>59</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1849593534.021788</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3655711393.987841</v>
+        <v>4866195324.930644</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1666688148972393</v>
+        <v>0.1482744717517163</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02225114595412211</v>
+        <v>0.02222399373469613</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>76</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1827855702.298346</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1487441106.000324</v>
+        <v>2059106096.132773</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07524635591264829</v>
+        <v>0.1075007271993969</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0460998874209388</v>
+        <v>0.05326570078898379</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>743720581.9643699</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2983580838.926581</v>
+        <v>2791756111.65072</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08593296493634958</v>
+        <v>0.1069351870595193</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04515779569159661</v>
+        <v>0.0369456291971834</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>80</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1491790416.936602</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2963595961.02443</v>
+        <v>3368738213.155692</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1221292614735464</v>
+        <v>0.1412778652070559</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02931611299146521</v>
+        <v>0.02181656628511636</v>
       </c>
       <c r="H74" t="b">
         <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>71</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1481798049.051985</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2025673975.526415</v>
+        <v>1971453778.328194</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1336137455027629</v>
+        <v>0.1248055379124759</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02376964903982488</v>
+        <v>0.03585891012488093</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1012836949.580863</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4870870089.777333</v>
+        <v>4536754424.291856</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08286543739449978</v>
+        <v>0.0904864161940286</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02684178385184524</v>
+        <v>0.02468152145707874</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>51</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2435435066.129338</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2282292200.127202</v>
+        <v>1945207518.358397</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1155424069081194</v>
+        <v>0.1761802286725714</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02713911295390908</v>
+        <v>0.02833445586302083</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1141146203.229915</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3454280049.971208</v>
+        <v>3634592458.831197</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08940575047676083</v>
+        <v>0.124675537134685</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04908061195924973</v>
+        <v>0.04929200365781217</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>73</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1727140029.74895</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1894464842.50955</v>
+        <v>1176507527.093594</v>
       </c>
       <c r="F79" t="n">
-        <v>0.149118088111996</v>
+        <v>0.1621438869033783</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03679976133284703</v>
+        <v>0.02756490577482332</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>947232524.405646</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4493852784.598616</v>
+        <v>5346460617.892725</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09226947327591031</v>
+        <v>0.08946017182458937</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02772832712481706</v>
+        <v>0.03827550982662021</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>44</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2246926416.307745</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3187530952.150795</v>
+        <v>3241428549.636786</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09148361201134302</v>
+        <v>0.1217254556881756</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03015100720544343</v>
+        <v>0.03166947784935627</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>46</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1593765409.076113</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3784992563.842723</v>
+        <v>5431168082.30116</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1365115401402516</v>
+        <v>0.1816799333997346</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02788780344688699</v>
+        <v>0.02300930909894775</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>77</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1892496333.634628</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2218583056.286947</v>
+        <v>2430205125.738814</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1056947092428698</v>
+        <v>0.1181073707019592</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03145492104835697</v>
+        <v>0.03288277186007062</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1109291540.60349</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2124875557.957637</v>
+        <v>2419407894.072768</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08163182912564644</v>
+        <v>0.08145052042726282</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03784712573199496</v>
+        <v>0.0438965984665864</v>
       </c>
       <c r="H84" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1062437765.668735</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3320614271.846016</v>
+        <v>3372875425.993847</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1124812627593974</v>
+        <v>0.1542565858127461</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03446301540796142</v>
+        <v>0.03834294638827596</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>79</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1660307231.454736</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2060016255.057152</v>
+        <v>2758820946.011758</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1267220856062978</v>
+        <v>0.1175900449520907</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02087335279484702</v>
+        <v>0.01819707376829384</v>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>27</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1030008163.490342</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1191518177.344873</v>
+        <v>1418539500.328081</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1524571353264962</v>
+        <v>0.1348584718881297</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03096826354947453</v>
+        <v>0.03620449011349239</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>595759142.0594447</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3674623652.783345</v>
+        <v>2888068699.405675</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1212856144223483</v>
+        <v>0.1442428261011937</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02493657465906839</v>
+        <v>0.03903673197525515</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>82</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1837311923.48354</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2952719945.829702</v>
+        <v>2917264198.930079</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1082518950356827</v>
+        <v>0.1412207107989628</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04160470300082992</v>
+        <v>0.02706610897730965</v>
       </c>
       <c r="H89" t="b">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>71</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1476360014.46418</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1595493276.703587</v>
+        <v>1751790762.942584</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1144078379238965</v>
+        <v>0.1382568768250422</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04457729248530026</v>
+        <v>0.0473551068561423</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>797746634.5410521</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1842313940.584726</v>
+        <v>1379005951.185391</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1208388457853829</v>
+        <v>0.1923915548123515</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03935014989098335</v>
+        <v>0.05672378240414588</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>921156963.5569899</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2882097427.266407</v>
+        <v>2991452260.785076</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1033250348864857</v>
+        <v>0.1052363066105049</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04370778224410602</v>
+        <v>0.04267467132770638</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>53</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1441048726.423299</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3851359492.763728</v>
+        <v>3707464254.751847</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1175140199802892</v>
+        <v>0.09548904342575959</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04746315807783155</v>
+        <v>0.04254776304088689</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>62</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1925679756.607805</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1552739436.746897</v>
+        <v>1781425601.717843</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1537670629961455</v>
+        <v>0.1429134713999781</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02790886714479787</v>
+        <v>0.03786070200148212</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>776369658.4757925</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>1984524093.296311</v>
+        <v>2106329745.1938</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08485633165359036</v>
+        <v>0.08671200326344292</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0435496558648644</v>
+        <v>0.03697526926571111</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>50</v>
-      </c>
-      <c r="J95" t="n">
-        <v>992262120.2040554</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1868256409.526462</v>
+        <v>2176065345.97006</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1201898109414367</v>
+        <v>0.1141422014288065</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03657795854589542</v>
+        <v>0.03731437143352984</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>934128205.7881755</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5237991083.476995</v>
+        <v>5278542690.332426</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1148766857159381</v>
+        <v>0.1286227997918208</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02824944179729193</v>
+        <v>0.02514003568014428</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>67</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2618995697.655128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2521127370.357782</v>
+        <v>2691571645.519962</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1153353645275323</v>
+        <v>0.1287268998559032</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02030723813050872</v>
+        <v>0.02369213534013717</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>55</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1260563637.360097</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2152423636.075685</v>
+        <v>3270322004.767832</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09424169946924556</v>
+        <v>0.1159468840640922</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0255641156643196</v>
+        <v>0.02510268918560902</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>65</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1076211742.601863</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4206362557.179274</v>
+        <v>3191904314.200954</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1330217386548005</v>
+        <v>0.1170666877194467</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01886281663998143</v>
+        <v>0.02000598348428254</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>65</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2103181365.72027</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3495889932.35746</v>
+        <v>2648112749.303377</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1835725239030529</v>
+        <v>0.1512919151678306</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05219014115849427</v>
+        <v>0.04854960948965192</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>85</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1747945120.726698</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_209.xlsx
+++ b/output/fit_clients/fit_round_209.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1804345290.480608</v>
+        <v>1944524826.402424</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09344538087655255</v>
+        <v>0.09695811402924301</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04013291089818324</v>
+        <v>0.04375182554180455</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2326228259.448231</v>
+        <v>2494400309.613796</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1565630944012214</v>
+        <v>0.1292102397459981</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03267109214864479</v>
+        <v>0.04723872719696107</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3871812869.617655</v>
+        <v>3850982418.333829</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1523527191029548</v>
+        <v>0.1263774352774541</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02519236602244539</v>
+        <v>0.03352675009110175</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,13 +570,13 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2993426764.527277</v>
+        <v>3762619140.578985</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09951589446350033</v>
+        <v>0.1037217447529967</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03342655392387031</v>
+        <v>0.04604180546586568</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2259749184.347012</v>
+        <v>2411224465.881019</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1128962381041527</v>
+        <v>0.1357232615512438</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03669610570228241</v>
+        <v>0.04869323153745694</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1968535609.371425</v>
+        <v>2565728121.088334</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06772346726304257</v>
+        <v>0.07069739223443805</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0349379763713322</v>
+        <v>0.03939808024076025</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3274875583.770134</v>
+        <v>2889446435.788595</v>
       </c>
       <c r="F8" t="n">
-        <v>0.142882050217431</v>
+        <v>0.192613893682777</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03284681310471246</v>
+        <v>0.02374641021778365</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1603602249.456823</v>
+        <v>1989309366.299169</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1367933613833238</v>
+        <v>0.1472116543695871</v>
       </c>
       <c r="G9" t="n">
-        <v>0.034149417549516</v>
+        <v>0.02365295694843921</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4358078217.483294</v>
+        <v>5682930868.902767</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1373669439144608</v>
+        <v>0.1351457139941288</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03825515852288983</v>
+        <v>0.0345746498258886</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4281234497.013476</v>
+        <v>2600720774.3654</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1302857513458029</v>
+        <v>0.1466980513812688</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04531142043392276</v>
+        <v>0.03385111575966333</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2223755995.620995</v>
+        <v>3072576874.487493</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1265235854632212</v>
+        <v>0.1771047149624007</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04623179334316294</v>
+        <v>0.04007945461701171</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3910960725.508696</v>
+        <v>3734800068.041265</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07672152726571958</v>
+        <v>0.09902454586079311</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02306651552210912</v>
+        <v>0.02936858453146662</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2962127541.972629</v>
+        <v>3275648743.825599</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1483220026144779</v>
+        <v>0.1572492622392613</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02899874299641899</v>
+        <v>0.03433756628057703</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -850,13 +850,13 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1356962034.947315</v>
+        <v>1552303204.815919</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09705494395992637</v>
+        <v>0.08083548330601567</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03026535696722271</v>
+        <v>0.03539351748792283</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2045392800.651763</v>
+        <v>2537742710.149551</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1120487770012377</v>
+        <v>0.1052728529895214</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04920847510265543</v>
+        <v>0.04739883565607894</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5177755046.359765</v>
+        <v>3296042449.822467</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1117271281327063</v>
+        <v>0.1425155622382123</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04871023413931758</v>
+        <v>0.04896319602450512</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,22 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3178838060.494053</v>
+        <v>3381798081.153773</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1656033232271292</v>
+        <v>0.1373226263448793</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02962188991865632</v>
+        <v>0.0338006638479262</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>836044058.2412699</v>
+        <v>987719422.283044</v>
       </c>
       <c r="F19" t="n">
-        <v>0.148175632810838</v>
+        <v>0.131010313809419</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02569520211147513</v>
+        <v>0.02373391955079306</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1875301941.755854</v>
+        <v>2221517921.320592</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1409595504429608</v>
+        <v>0.1276146200475978</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02296633815629522</v>
+        <v>0.02307155962344373</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,22 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2230897909.425368</v>
+        <v>2297520731.02627</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08125646388839797</v>
+        <v>0.07153310233708383</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03711282662575058</v>
+        <v>0.0293559204432774</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1040,22 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2519821732.351064</v>
+        <v>2762476373.888532</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09998079664490538</v>
+        <v>0.1247650394210145</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05263191380431662</v>
+        <v>0.04082630062997517</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1309753111.600517</v>
+        <v>950199171.7172369</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1834524021220171</v>
+        <v>0.1270942625449589</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03822712632521697</v>
+        <v>0.03715133374473734</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2542134783.993894</v>
+        <v>3563555698.75362</v>
       </c>
       <c r="F24" t="n">
-        <v>0.144893659969305</v>
+        <v>0.1028397734147179</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02293436859497413</v>
+        <v>0.02537074701038122</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1390512168.532635</v>
+        <v>1338960256.970954</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1168205951659543</v>
+        <v>0.08656961872192757</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02597842807498604</v>
+        <v>0.01896527034374876</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1165041709.833524</v>
+        <v>1308035068.793396</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1000535347417922</v>
+        <v>0.0948221157877301</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02802533119495073</v>
+        <v>0.03241092598664726</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3280279770.285501</v>
+        <v>3591051794.345109</v>
       </c>
       <c r="F27" t="n">
-        <v>0.137635734384751</v>
+        <v>0.1298819964420901</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02329334935133799</v>
+        <v>0.0225954868035166</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3536123956.872311</v>
+        <v>3550138807.55697</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09950398201783887</v>
+        <v>0.1169146993484928</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04976945416100254</v>
+        <v>0.04648090499291535</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5345358654.645092</v>
+        <v>5805782668.712908</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1407328644001894</v>
+        <v>0.1026239917847642</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04472080758698028</v>
+        <v>0.03022467525311595</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1465295275.20454</v>
+        <v>1541498065.257377</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1306597761486466</v>
+        <v>0.1296347230823743</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03115607691354667</v>
+        <v>0.02751352275272301</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1453970849.720945</v>
+        <v>909686245.9359194</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1063837136095232</v>
+        <v>0.08462280117740434</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03718599451940664</v>
+        <v>0.04129510784148792</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1509096954.469315</v>
+        <v>1420086085.519794</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09624044651318957</v>
+        <v>0.07848843670445355</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02680021301865421</v>
+        <v>0.02935244988219074</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1354,13 +1354,13 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2818815935.287608</v>
+        <v>1990146211.199777</v>
       </c>
       <c r="F33" t="n">
-        <v>0.162963399822655</v>
+        <v>0.1686936533855694</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05549132760052438</v>
+        <v>0.04958289238069766</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1300095625.036676</v>
+        <v>1017778622.511491</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08789805221916311</v>
+        <v>0.09373669573213375</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01985759861264966</v>
+        <v>0.02518473211534939</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1321386119.225323</v>
+        <v>1322228642.556742</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0820219385499648</v>
+        <v>0.08919684103798779</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04117506206954837</v>
+        <v>0.037763166871745</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2795900905.226921</v>
+        <v>2559890032.169794</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1236572871754396</v>
+        <v>0.1423637646961659</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02826995181987975</v>
+        <v>0.02112800213396814</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,13 +1466,13 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2874219298.090683</v>
+        <v>2517181309.118937</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08721858016473492</v>
+        <v>0.07448482869090708</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03318255881785226</v>
+        <v>0.04133976072958664</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1367606512.293957</v>
+        <v>1764560533.649512</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1137185284789382</v>
+        <v>0.09936550627380486</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02451680281116835</v>
+        <v>0.02972098424935529</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1522,13 +1522,13 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1930611245.717971</v>
+        <v>1842984177.31128</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1350103248975026</v>
+        <v>0.1221555135990113</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02991791360300305</v>
+        <v>0.02695216131190208</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1550,16 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1453394717.350543</v>
+        <v>1369638599.072972</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1014409256388659</v>
+        <v>0.1387986847349419</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0379446863793029</v>
+        <v>0.05506422276815086</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2931088993.779003</v>
+        <v>2628029596.466891</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1596907842365546</v>
+        <v>0.1522159653563263</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02921872089474794</v>
+        <v>0.03623282190436201</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3605615060.432132</v>
+        <v>2771837633.433403</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1144958197776064</v>
+        <v>0.1004183759863304</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03842599711604973</v>
+        <v>0.03067649524537416</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2799106841.217837</v>
+        <v>3056511088.492984</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1743236748968706</v>
+        <v>0.1529702667917302</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01571537790229991</v>
+        <v>0.02580266176214994</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2099422676.370876</v>
+        <v>1717744139.286307</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09099434217141726</v>
+        <v>0.07219881118060176</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02393741202555835</v>
+        <v>0.02732506305393323</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2001743781.426899</v>
+        <v>1628910199.499763</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1644665623107948</v>
+        <v>0.1874408312106733</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04836782888337638</v>
+        <v>0.05485952829916272</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1718,16 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5330073029.437055</v>
+        <v>4835258971.814534</v>
       </c>
       <c r="F46" t="n">
-        <v>0.137097874979842</v>
+        <v>0.1780324057710706</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0549505801513219</v>
+        <v>0.04818488840688979</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4055480061.635306</v>
+        <v>4582675446.688257</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1321857643136082</v>
+        <v>0.1565330397474957</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03802097745779161</v>
+        <v>0.03905789733455879</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3026652612.092631</v>
+        <v>3610687186.543907</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08104879221403967</v>
+        <v>0.06890208914463243</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0239439597984696</v>
+        <v>0.0257710870513641</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1231625836.895443</v>
+        <v>1380385346.16665</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1652781369908231</v>
+        <v>0.1433453885212203</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03170637975867222</v>
+        <v>0.0335515419990564</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3098287250.545048</v>
+        <v>2564921418.960459</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1425958376000411</v>
+        <v>0.1760625921046065</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03489966880230572</v>
+        <v>0.05250250417452627</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1130727118.659039</v>
+        <v>1065340123.12621</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1576890395714917</v>
+        <v>0.1441780493032532</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04699045511381954</v>
+        <v>0.03528992142992884</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,22 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3385526596.877558</v>
+        <v>3615474956.365478</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1226332479862866</v>
+        <v>0.1135088894290625</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04929900244483618</v>
+        <v>0.04975169826072085</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2567934910.311028</v>
+        <v>3714115292.597791</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1634610339211603</v>
+        <v>0.2010000781016764</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02979754091838224</v>
+        <v>0.02737428874207054</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3633489741.778564</v>
+        <v>4176395420.004472</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1025864694686148</v>
+        <v>0.121113610294936</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03664033694934435</v>
+        <v>0.03725165014628438</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4595284289.196458</v>
+        <v>4133474066.198771</v>
       </c>
       <c r="F55" t="n">
-        <v>0.223111220873079</v>
+        <v>0.1793781162465107</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02581821356001365</v>
+        <v>0.01995668824716081</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,16 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1662499252.835171</v>
+        <v>1280771935.283358</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1121687264303901</v>
+        <v>0.1228215060420892</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05215262906952886</v>
+        <v>0.05202059839578968</v>
       </c>
       <c r="H56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2026,13 +2026,13 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4487104606.223909</v>
+        <v>2853920129.354965</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1157064541767076</v>
+        <v>0.1478694404748481</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01840479546778226</v>
+        <v>0.02722471663916768</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1607543752.259267</v>
+        <v>1486279419.889789</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1814751863450726</v>
+        <v>0.1319325016283059</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02416231710854932</v>
+        <v>0.03108504484015186</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3573889667.334834</v>
+        <v>4483080130.604254</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1169651524228917</v>
+        <v>0.127881525044597</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03281423001181109</v>
+        <v>0.04097528838646117</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2828991182.047192</v>
+        <v>2459249038.409427</v>
       </c>
       <c r="F60" t="n">
-        <v>0.18531316757543</v>
+        <v>0.1562986152062196</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02696316739880274</v>
+        <v>0.02126130539812261</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3287100142.41669</v>
+        <v>2580233442.326795</v>
       </c>
       <c r="F61" t="n">
-        <v>0.137926394449458</v>
+        <v>0.1282971127022299</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02771770278000096</v>
+        <v>0.02010622897245812</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2107740185.183083</v>
+        <v>1884761082.945726</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1442646925995695</v>
+        <v>0.1616919889067458</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04522755195705404</v>
+        <v>0.03668227309516398</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,19 +2188,19 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4775015407.94737</v>
+        <v>4062239992.72086</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0769006727030432</v>
+        <v>0.06895976326097758</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02971911849528635</v>
+        <v>0.04439544767967905</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5275600398.510314</v>
+        <v>3827355117.026302</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1215039461892326</v>
+        <v>0.1316282103176559</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02619536970125757</v>
+        <v>0.02742737802220526</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,19 +2244,19 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4033464373.50979</v>
+        <v>4837825544.846575</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1591811668631586</v>
+        <v>0.134692475775452</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02576304468181157</v>
+        <v>0.02970600974718789</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4321972047.868352</v>
+        <v>3480602081.835589</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1393478976722624</v>
+        <v>0.1389468371412405</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0388551449386591</v>
+        <v>0.04192537504971443</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,13 +2306,13 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2209412591.570769</v>
+        <v>3209055171.216093</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1006319954734326</v>
+        <v>0.07304412069554</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04266431437340929</v>
+        <v>0.03226410038802324</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5001472193.541603</v>
+        <v>4710527595.590015</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1369056662419415</v>
+        <v>0.1254819467852399</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04903358998113254</v>
+        <v>0.03236893564276735</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1564269964.140223</v>
+        <v>1959843531.306144</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1830055755661683</v>
+        <v>0.1704435672092693</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04150801258272792</v>
+        <v>0.05044254532922877</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2390,16 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2715422442.428398</v>
+        <v>3722114393.749434</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1031674139494331</v>
+        <v>0.08675583227768086</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03110338209820444</v>
+        <v>0.03906184852751862</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4866195324.930644</v>
+        <v>5655692590.901482</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1482744717517163</v>
+        <v>0.180409583657492</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02222399373469613</v>
+        <v>0.03366477999995609</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2059106096.132773</v>
+        <v>1784803600.932181</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1075007271993969</v>
+        <v>0.07231274468802706</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05326570078898379</v>
+        <v>0.03952986344997499</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2791756111.65072</v>
+        <v>2779229428.371612</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1069351870595193</v>
+        <v>0.06810474497188161</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0369456291971834</v>
+        <v>0.03531131081035827</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,22 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3368738213.155692</v>
+        <v>3500012666.642526</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1412778652070559</v>
+        <v>0.127701220895868</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02181656628511636</v>
+        <v>0.02437415138253532</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1971453778.328194</v>
+        <v>2304350829.33677</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1248055379124759</v>
+        <v>0.140370465037592</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03585891012488093</v>
+        <v>0.02593050333068101</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4536754424.291856</v>
+        <v>3639291606.503774</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0904864161940286</v>
+        <v>0.112067821070134</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02468152145707874</v>
+        <v>0.02969926439367767</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -2580,22 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1945207518.358397</v>
+        <v>1710705960.18749</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1761802286725714</v>
+        <v>0.1131579865233595</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02833445586302083</v>
+        <v>0.03035846302609824</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3634592458.831197</v>
+        <v>4732649897.865964</v>
       </c>
       <c r="F78" t="n">
-        <v>0.124675537134685</v>
+        <v>0.1164989527103527</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04929200365781217</v>
+        <v>0.0366145708648134</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1176507527.093594</v>
+        <v>1322059544.085426</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1621438869033783</v>
+        <v>0.1234465650613457</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02756490577482332</v>
+        <v>0.02820278437350488</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,19 +2664,19 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5346460617.892725</v>
+        <v>5497053752.71632</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08946017182458937</v>
+        <v>0.1004863118769106</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03827550982662021</v>
+        <v>0.03496463636560862</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3241428549.636786</v>
+        <v>4851261629.806185</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1217254556881756</v>
+        <v>0.08548374836387719</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03166947784935627</v>
+        <v>0.02991128446553057</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5431168082.30116</v>
+        <v>4210288560.704889</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1816799333997346</v>
+        <v>0.1732597699436954</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02300930909894775</v>
+        <v>0.01923434197551947</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2430205125.738814</v>
+        <v>2060122183.337142</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1181073707019592</v>
+        <v>0.1142997032300428</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03288277186007062</v>
+        <v>0.03562278536013827</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,22 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2419407894.072768</v>
+        <v>1762852200.075597</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08145052042726282</v>
+        <v>0.114231656387056</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0438965984665864</v>
+        <v>0.04222990091758583</v>
       </c>
       <c r="H84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3372875425.993847</v>
+        <v>2889738689.690434</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1542565858127461</v>
+        <v>0.1503945879844516</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03834294638827596</v>
+        <v>0.03478395061888256</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,22 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2758820946.011758</v>
+        <v>2363973894.816265</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1175900449520907</v>
+        <v>0.1150101419805511</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01819707376829384</v>
+        <v>0.02473166597655284</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1418539500.328081</v>
+        <v>1073210387.173941</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1348584718881297</v>
+        <v>0.1780411246219496</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03620449011349239</v>
+        <v>0.02864583409481078</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,22 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2888068699.405675</v>
+        <v>3363952378.492778</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1442428261011937</v>
+        <v>0.1195575311402343</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03903673197525515</v>
+        <v>0.0302331600319444</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2922,16 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2917264198.930079</v>
+        <v>3244085968.043916</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1412207107989628</v>
+        <v>0.1129754613351308</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02706610897730965</v>
+        <v>0.02789459225384883</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1751790762.942584</v>
+        <v>1416216428.749313</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1382568768250422</v>
+        <v>0.1045843253853828</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0473551068561423</v>
+        <v>0.04175683755978716</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1379005951.185391</v>
+        <v>2024450846.224793</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1923915548123515</v>
+        <v>0.1515806961641298</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05672378240414588</v>
+        <v>0.05871733182904068</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2991452260.785076</v>
+        <v>2247325074.997019</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1052363066105049</v>
+        <v>0.08140376035810221</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04267467132770638</v>
+        <v>0.04091384978728319</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,13 +3034,13 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3707464254.751847</v>
+        <v>3322693705.866427</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09548904342575959</v>
+        <v>0.09487557763516771</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04254776304088689</v>
+        <v>0.04827762338989798</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1781425601.717843</v>
+        <v>2498264647.219363</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1429134713999781</v>
+        <v>0.1605277874671396</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03786070200148212</v>
+        <v>0.04311597424801972</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2106329745.1938</v>
+        <v>2330070115.998666</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08671200326344292</v>
+        <v>0.09963072994043635</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03697526926571111</v>
+        <v>0.04934666235493069</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2176065345.97006</v>
+        <v>2300631385.274472</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1141422014288065</v>
+        <v>0.1039934625408475</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03731437143352984</v>
+        <v>0.03149299040075142</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5278542690.332426</v>
+        <v>5344255615.724889</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1286227997918208</v>
+        <v>0.1594827536848439</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02514003568014428</v>
+        <v>0.01818732271061041</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2691571645.519962</v>
+        <v>3106244516.154706</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1287268998559032</v>
+        <v>0.08752854084341721</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02369213534013717</v>
+        <v>0.02670104561504367</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3270322004.767832</v>
+        <v>2882911417.182468</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1159468840640922</v>
+        <v>0.09784796312357126</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02510268918560902</v>
+        <v>0.02726703519158729</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3230,16 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3191904314.200954</v>
+        <v>4789509531.468059</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1170666877194467</v>
+        <v>0.1569559797032149</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02000598348428254</v>
+        <v>0.01705662820950102</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2648112749.303377</v>
+        <v>2527947411.69864</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1512919151678306</v>
+        <v>0.1861808248922603</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04854960948965192</v>
+        <v>0.0490922609488661</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_209.xlsx
+++ b/output/fit_clients/fit_round_209.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1944524826.402424</v>
+        <v>2457220258.386694</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09695811402924301</v>
+        <v>0.08793638319818844</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04375182554180455</v>
+        <v>0.04255408314811634</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2494400309.613796</v>
+        <v>1871720504.941521</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1292102397459981</v>
+        <v>0.180535193046959</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04723872719696107</v>
+        <v>0.04056796323618897</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3850982418.333829</v>
+        <v>4006041110.057844</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1263774352774541</v>
+        <v>0.1396398426953142</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03352675009110175</v>
+        <v>0.02792061613844813</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>114</v>
+      </c>
+      <c r="J4" t="n">
+        <v>209</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,17 +606,24 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3762619140.578985</v>
+        <v>2599128118.219417</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1037217447529967</v>
+        <v>0.08323646978470139</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04604180546586568</v>
+        <v>0.03484591134683081</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>86</v>
+      </c>
+      <c r="J5" t="n">
+        <v>206</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +635,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2411224465.881019</v>
+        <v>1998604628.676943</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1357232615512438</v>
+        <v>0.1047130385075256</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04869323153745694</v>
+        <v>0.0344084374449066</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +676,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2565728121.088334</v>
+        <v>2194430617.058763</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07069739223443805</v>
+        <v>0.07074387493273444</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03939808024076025</v>
+        <v>0.04203288954774874</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +705,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2889446435.788595</v>
+        <v>2447673318.674026</v>
       </c>
       <c r="F8" t="n">
-        <v>0.192613893682777</v>
+        <v>0.1635656318469706</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02374641021778365</v>
+        <v>0.02928061259683331</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>59</v>
+      </c>
+      <c r="J8" t="n">
+        <v>208</v>
+      </c>
+      <c r="K8" t="n">
+        <v>48.52509711011241</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1989309366.299169</v>
+        <v>1981134689.918225</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1472116543695871</v>
+        <v>0.1399912944506837</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02365295694843921</v>
+        <v>0.02380663321556329</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,23 +777,30 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5682930868.902767</v>
+        <v>5936197449.139991</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1351457139941288</v>
+        <v>0.1593707813676334</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0345746498258886</v>
+        <v>0.05255339287910927</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>190</v>
+      </c>
+      <c r="J10" t="n">
+        <v>209</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -732,23 +812,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2600720774.3654</v>
+        <v>3993609648.662677</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1466980513812688</v>
+        <v>0.1891161200191659</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03385111575966333</v>
+        <v>0.04815343221434719</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>87</v>
+      </c>
+      <c r="J11" t="n">
+        <v>209</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +847,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3072576874.487493</v>
+        <v>2813567852.399336</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1771047149624007</v>
+        <v>0.172734794591572</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04007945461701171</v>
+        <v>0.05128957729522551</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +882,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3734800068.041265</v>
+        <v>4707447480.54592</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09902454586079311</v>
+        <v>0.07048256999476714</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02936858453146662</v>
+        <v>0.02455955822487889</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>104</v>
+      </c>
+      <c r="J13" t="n">
+        <v>209</v>
+      </c>
+      <c r="K13" t="n">
+        <v>117.236619434225</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +919,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3275648743.825599</v>
+        <v>2552917699.880104</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1572492622392613</v>
+        <v>0.1781955860934685</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03433756628057703</v>
+        <v>0.04114597461090682</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>40</v>
+      </c>
+      <c r="J14" t="n">
+        <v>205</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +954,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1552303204.815919</v>
+        <v>1110472269.557253</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08083548330601567</v>
+        <v>0.08949321448968139</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03539351748792283</v>
+        <v>0.03809863419897581</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +989,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2537742710.149551</v>
+        <v>2039146987.599075</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1052728529895214</v>
+        <v>0.09193801288343091</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04739883565607894</v>
+        <v>0.03863056504368388</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1024,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3296042449.822467</v>
+        <v>4068100612.402908</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1425155622382123</v>
+        <v>0.1361074698630946</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04896319602450512</v>
+        <v>0.04513350672425932</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>100</v>
+      </c>
+      <c r="J17" t="n">
+        <v>209</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1059,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3381798081.153773</v>
+        <v>3629914872.62377</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1373226263448793</v>
+        <v>0.1828143790460549</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0338006638479262</v>
+        <v>0.03149082461086399</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>53</v>
+      </c>
+      <c r="J18" t="n">
+        <v>209</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1094,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>987719422.283044</v>
+        <v>1000203350.047198</v>
       </c>
       <c r="F19" t="n">
-        <v>0.131010313809419</v>
+        <v>0.1257061222540353</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02373391955079306</v>
+        <v>0.02073322342544518</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1129,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2221517921.320592</v>
+        <v>1957272077.666303</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1276146200475978</v>
+        <v>0.1589795966702985</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02307155962344373</v>
+        <v>0.02643338589891577</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1164,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2297520731.02627</v>
+        <v>2471142129.60822</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07153310233708383</v>
+        <v>0.1021023587880566</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0293559204432774</v>
+        <v>0.04239982621572622</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,16 +1205,25 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2762476373.888532</v>
+        <v>3320106698.225605</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1247650394210145</v>
+        <v>0.1147279142061645</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04082630062997517</v>
+        <v>0.05476387751208329</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>54</v>
+      </c>
+      <c r="J22" t="n">
+        <v>208</v>
+      </c>
+      <c r="K22" t="n">
+        <v>81.08429720745842</v>
       </c>
     </row>
     <row r="23">
@@ -1074,17 +1242,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>950199171.7172369</v>
+        <v>1468594335.877941</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1270942625449589</v>
+        <v>0.1437702490811252</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03715133374473734</v>
+        <v>0.04880458520038371</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1271,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3563555698.75362</v>
+        <v>4095366328.528588</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1028397734147179</v>
+        <v>0.09306648345906644</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02537074701038122</v>
+        <v>0.02794076934860115</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>64</v>
+      </c>
+      <c r="J24" t="n">
+        <v>209</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1306,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1338960256.970954</v>
+        <v>1484592871.692883</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08656961872192757</v>
+        <v>0.1094326454576386</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01896527034374876</v>
+        <v>0.02611811439896857</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1347,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1308035068.793396</v>
+        <v>1000657326.798711</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0948221157877301</v>
+        <v>0.1097185796072421</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03241092598664726</v>
+        <v>0.02380020943203838</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1376,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3591051794.345109</v>
+        <v>4627123913.000422</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1298819964420901</v>
+        <v>0.1044446633621068</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0225954868035166</v>
+        <v>0.0167426855109184</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>82</v>
+      </c>
+      <c r="J27" t="n">
+        <v>209</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1411,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3550138807.55697</v>
+        <v>3046725392.159366</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1169146993484928</v>
+        <v>0.1338236998419913</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04648090499291535</v>
+        <v>0.03699805324891215</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>43</v>
+      </c>
+      <c r="J28" t="n">
+        <v>203</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1242,16 +1452,25 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5805782668.712908</v>
+        <v>5607438308.668821</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1026239917847642</v>
+        <v>0.138251200439711</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03022467525311595</v>
+        <v>0.03786253472792863</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>198</v>
+      </c>
+      <c r="J29" t="n">
+        <v>209</v>
+      </c>
+      <c r="K29" t="n">
+        <v>131.979637629072</v>
       </c>
     </row>
     <row r="30">
@@ -1270,17 +1489,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1541498065.257377</v>
+        <v>1514390240.591985</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1296347230823743</v>
+        <v>0.08916575835620356</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02751352275272301</v>
+        <v>0.03440067174739623</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1518,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>909686245.9359194</v>
+        <v>1166642406.222403</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08462280117740434</v>
+        <v>0.07091152186354915</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04129510784148792</v>
+        <v>0.04496609239070191</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1553,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1420086085.519794</v>
+        <v>1409847748.419854</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07848843670445355</v>
+        <v>0.1070764141475285</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02935244988219074</v>
+        <v>0.03307036577440893</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1588,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1990146211.199777</v>
+        <v>2499264383.599851</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1686936533855694</v>
+        <v>0.203109913924998</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04958289238069766</v>
+        <v>0.05190010038868157</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1629,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1017778622.511491</v>
+        <v>1108918908.34624</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09373669573213375</v>
+        <v>0.07993702798141876</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02518473211534939</v>
+        <v>0.02702306103498071</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1658,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1322228642.556742</v>
+        <v>1259607026.704445</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08919684103798779</v>
+        <v>0.101645217996905</v>
       </c>
       <c r="G35" t="n">
-        <v>0.037763166871745</v>
+        <v>0.04421628024783183</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1693,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2559890032.169794</v>
+        <v>2560304609.199705</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1423637646961659</v>
+        <v>0.1195584593536714</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02112800213396814</v>
+        <v>0.02564891860928793</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1728,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2517181309.118937</v>
+        <v>2006333359.304113</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07448482869090708</v>
+        <v>0.1084822783219926</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04133976072958664</v>
+        <v>0.03427534482130677</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1769,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1764560533.649512</v>
+        <v>1443434440.040039</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09936550627380486</v>
+        <v>0.1224842603059246</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02972098424935529</v>
+        <v>0.0383241232517567</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1804,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1842984177.31128</v>
+        <v>1544220795.988923</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1221555135990113</v>
+        <v>0.1535857635614924</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02695216131190208</v>
+        <v>0.02721722715311937</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1833,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1369638599.072972</v>
+        <v>1672345458.99532</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1387986847349419</v>
+        <v>0.1418333051489791</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05506422276815086</v>
+        <v>0.05865917947395953</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1868,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2628029596.466891</v>
+        <v>2677433259.936901</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1522159653563263</v>
+        <v>0.1569433142088365</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03623282190436201</v>
+        <v>0.04480570891557811</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1903,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2771837633.433403</v>
+        <v>3801536197.995542</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1004183759863304</v>
+        <v>0.08422647789796203</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03067649524537416</v>
+        <v>0.03900382238659756</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>82</v>
+      </c>
+      <c r="J42" t="n">
+        <v>209</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1938,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3056511088.492984</v>
+        <v>2762997454.313077</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1529702667917302</v>
+        <v>0.1291419634990659</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02580266176214994</v>
+        <v>0.02241614165119686</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1973,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1717744139.286307</v>
+        <v>1978595903.970793</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07219881118060176</v>
+        <v>0.08560395618646013</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02732506305393323</v>
+        <v>0.03033634395402953</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2008,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1628910199.499763</v>
+        <v>1868060313.713325</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1874408312106733</v>
+        <v>0.1448172567085827</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05485952829916272</v>
+        <v>0.04248395725008794</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2043,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4835258971.814534</v>
+        <v>3517573972.591062</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1780324057710706</v>
+        <v>0.1293110520611872</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04818488840688979</v>
+        <v>0.04944272012951169</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>119</v>
+      </c>
+      <c r="J46" t="n">
+        <v>209</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,22 +2078,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4582675446.688257</v>
+        <v>3839046722.076216</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1565330397474957</v>
+        <v>0.1564138802242614</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03905789733455879</v>
+        <v>0.04277773721419811</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>94</v>
+      </c>
+      <c r="J47" t="n">
+        <v>208</v>
+      </c>
+      <c r="K47" t="n">
+        <v>96.4159721888864</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2115,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3610687186.543907</v>
+        <v>3490702136.920866</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06890208914463243</v>
+        <v>0.09021462935251637</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0257710870513641</v>
+        <v>0.0247934008612699</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>103</v>
+      </c>
+      <c r="J48" t="n">
+        <v>208</v>
+      </c>
+      <c r="K48" t="n">
+        <v>102.8073876113463</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2152,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1380385346.16665</v>
+        <v>1244135958.745966</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1433453885212203</v>
+        <v>0.1542758082381282</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0335515419990564</v>
+        <v>0.03050055965935683</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,17 +2193,24 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2564921418.960459</v>
+        <v>3149049464.37198</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1760625921046065</v>
+        <v>0.1512690872223068</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05250250417452627</v>
+        <v>0.05302397659735979</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>67</v>
+      </c>
+      <c r="J50" t="n">
+        <v>207</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2222,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1065340123.12621</v>
+        <v>1375234505.195712</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1441780493032532</v>
+        <v>0.1818271313580778</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03528992142992884</v>
+        <v>0.03505091428245158</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,16 +2263,25 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3615474956.365478</v>
+        <v>3445621358.882112</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1135088894290625</v>
+        <v>0.1282332914493952</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04975169826072085</v>
+        <v>0.03807237767244973</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>142</v>
+      </c>
+      <c r="J52" t="n">
+        <v>208</v>
+      </c>
+      <c r="K52" t="n">
+        <v>94.05596283448271</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2294,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3714115292.597791</v>
+        <v>3123597439.524046</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2010000781016764</v>
+        <v>0.1364529766551708</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02737428874207054</v>
+        <v>0.02856120613214716</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>28</v>
+      </c>
+      <c r="J53" t="n">
+        <v>205</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2329,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4176395420.004472</v>
+        <v>3436775349.344835</v>
       </c>
       <c r="F54" t="n">
-        <v>0.121113610294936</v>
+        <v>0.1082644997138958</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03725165014628438</v>
+        <v>0.0435117781833001</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>108</v>
+      </c>
+      <c r="J54" t="n">
+        <v>209</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,23 +2364,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4133474066.198771</v>
+        <v>3179127017.386866</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1793781162465107</v>
+        <v>0.1373396156608857</v>
       </c>
       <c r="G55" t="n">
-        <v>0.01995668824716081</v>
+        <v>0.02724145541077536</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>93</v>
+      </c>
+      <c r="J55" t="n">
+        <v>207</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1998,17 +2405,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1280771935.283358</v>
+        <v>1495694002.05261</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1228215060420892</v>
+        <v>0.1263610726226621</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05202059839578968</v>
+        <v>0.05419296612847598</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2434,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2853920129.354965</v>
+        <v>3247181554.204421</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1478694404748481</v>
+        <v>0.135503489717907</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02722471663916768</v>
+        <v>0.02494728643383506</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>82</v>
+      </c>
+      <c r="J57" t="n">
+        <v>207</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2469,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1486279419.889789</v>
+        <v>1669303189.635631</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1319325016283059</v>
+        <v>0.1331189993919332</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03108504484015186</v>
+        <v>0.03187500283358806</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2504,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4483080130.604254</v>
+        <v>3471575356.737667</v>
       </c>
       <c r="F59" t="n">
-        <v>0.127881525044597</v>
+        <v>0.1147570786120729</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04097528838646117</v>
+        <v>0.04040109000815167</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>101</v>
+      </c>
+      <c r="J59" t="n">
+        <v>208</v>
+      </c>
+      <c r="K59" t="n">
+        <v>90.2976576443545</v>
       </c>
     </row>
     <row r="60">
@@ -2110,17 +2547,24 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2459249038.409427</v>
+        <v>2509865019.390625</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1562986152062196</v>
+        <v>0.15459935615267</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02126130539812261</v>
+        <v>0.02964665044466755</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>29</v>
+      </c>
+      <c r="J60" t="n">
+        <v>199</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2576,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2580233442.326795</v>
+        <v>2653647899.876688</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1282971127022299</v>
+        <v>0.151043185123893</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02010622897245812</v>
+        <v>0.02735054706747147</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>6</v>
+      </c>
+      <c r="J61" t="n">
+        <v>188</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2611,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1884761082.945726</v>
+        <v>1575643757.869758</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1616919889067458</v>
+        <v>0.1705353425866995</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03668227309516398</v>
+        <v>0.03474949658944854</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2646,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4062239992.72086</v>
+        <v>3455994321.028068</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06895976326097758</v>
+        <v>0.08640232037595258</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04439544767967905</v>
+        <v>0.04550247772912955</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>102</v>
+      </c>
+      <c r="J63" t="n">
+        <v>208</v>
+      </c>
+      <c r="K63" t="n">
+        <v>90.72077126364267</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2683,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3827355117.026302</v>
+        <v>5015770378.430667</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1316282103176559</v>
+        <v>0.1215372627546532</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02742737802220526</v>
+        <v>0.02417903225418836</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>103</v>
+      </c>
+      <c r="J64" t="n">
+        <v>208</v>
+      </c>
+      <c r="K64" t="n">
+        <v>111.0444484428603</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2726,25 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4837825544.846575</v>
+        <v>4799241036.688605</v>
       </c>
       <c r="F65" t="n">
-        <v>0.134692475775452</v>
+        <v>0.1470184615340108</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02970600974718789</v>
+        <v>0.02243718559679931</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>167</v>
+      </c>
+      <c r="J65" t="n">
+        <v>209</v>
+      </c>
+      <c r="K65" t="n">
+        <v>119.9153906767517</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2757,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3480602081.835589</v>
+        <v>3774313290.994279</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1389468371412405</v>
+        <v>0.1630363084781149</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04192537504971443</v>
+        <v>0.03755644314973014</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>103</v>
+      </c>
+      <c r="J66" t="n">
+        <v>208</v>
+      </c>
+      <c r="K66" t="n">
+        <v>104.0773664319231</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2794,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3209055171.216093</v>
+        <v>3145091236.218422</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07304412069554</v>
+        <v>0.07887953664266785</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03226410038802324</v>
+        <v>0.03939742806454793</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>2</v>
+      </c>
+      <c r="J67" t="n">
+        <v>188</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2829,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4710527595.590015</v>
+        <v>4459537720.198049</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1254819467852399</v>
+        <v>0.1514518198601772</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03236893564276735</v>
+        <v>0.05025925594501598</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>105</v>
+      </c>
+      <c r="J68" t="n">
+        <v>209</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2864,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1959843531.306144</v>
+        <v>1725421869.671219</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1704435672092693</v>
+        <v>0.1549062591971479</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05044254532922877</v>
+        <v>0.03840719938324108</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2899,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3722114393.749434</v>
+        <v>2408508672.318211</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08675583227768086</v>
+        <v>0.1016024093832724</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03906184852751862</v>
+        <v>0.03949576697688418</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>32</v>
+      </c>
+      <c r="J70" t="n">
+        <v>206</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,16 +2940,25 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5655692590.901482</v>
+        <v>5251091378.340256</v>
       </c>
       <c r="F71" t="n">
-        <v>0.180409583657492</v>
+        <v>0.1297090281520748</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03366477999995609</v>
+        <v>0.03150427355077049</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>160</v>
+      </c>
+      <c r="J71" t="n">
+        <v>209</v>
+      </c>
+      <c r="K71" t="n">
+        <v>118.8379507994411</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2971,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1784803600.932181</v>
+        <v>1623041955.774506</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07231274468802706</v>
+        <v>0.103563660004201</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03952986344997499</v>
+        <v>0.04152893168508481</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,22 +3006,31 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2779229428.371612</v>
+        <v>3505393342.836769</v>
       </c>
       <c r="F73" t="n">
-        <v>0.06810474497188161</v>
+        <v>0.09177364946392878</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03531131081035827</v>
+        <v>0.03921150609116501</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>12</v>
+      </c>
+      <c r="J73" t="n">
+        <v>208</v>
+      </c>
+      <c r="K73" t="n">
+        <v>112.7958293121631</v>
       </c>
     </row>
     <row r="74">
@@ -2502,16 +3049,25 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3500012666.642526</v>
+        <v>3537452390.252835</v>
       </c>
       <c r="F74" t="n">
-        <v>0.127701220895868</v>
+        <v>0.1342288478144071</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02437415138253532</v>
+        <v>0.03460737198194874</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>62</v>
+      </c>
+      <c r="J74" t="n">
+        <v>208</v>
+      </c>
+      <c r="K74" t="n">
+        <v>105.7696977086499</v>
       </c>
     </row>
     <row r="75">
@@ -2530,17 +3086,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2304350829.33677</v>
+        <v>2366773631.870509</v>
       </c>
       <c r="F75" t="n">
-        <v>0.140370465037592</v>
+        <v>0.1488897336278176</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02593050333068101</v>
+        <v>0.0378524481821489</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3115,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3639291606.503774</v>
+        <v>4747173470.990732</v>
       </c>
       <c r="F76" t="n">
-        <v>0.112067821070134</v>
+        <v>0.104475521316256</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02969926439367767</v>
+        <v>0.02574764529897535</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>96</v>
+      </c>
+      <c r="J76" t="n">
+        <v>208</v>
+      </c>
+      <c r="K76" t="n">
+        <v>101.8902370845715</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3152,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1710705960.18749</v>
+        <v>1697577486.023455</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1131579865233595</v>
+        <v>0.1695951688005098</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03035846302609824</v>
+        <v>0.01957292232270492</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,16 +3193,25 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4732649897.865964</v>
+        <v>4400868370.944617</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1164989527103527</v>
+        <v>0.1067200176311193</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0366145708648134</v>
+        <v>0.04424314034929138</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>105</v>
+      </c>
+      <c r="J78" t="n">
+        <v>208</v>
+      </c>
+      <c r="K78" t="n">
+        <v>117.0705885248091</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3224,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1322059544.085426</v>
+        <v>1417126979.787295</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1234465650613457</v>
+        <v>0.14344675920525</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02820278437350488</v>
+        <v>0.03490877802354719</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3259,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5497053752.71632</v>
+        <v>3717396636.878345</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1004863118769106</v>
+        <v>0.07928493592676369</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03496463636560862</v>
+        <v>0.03847677500786036</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>101</v>
+      </c>
+      <c r="J80" t="n">
+        <v>209</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,22 +3294,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4851261629.806185</v>
+        <v>4360560861.448611</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08548374836387719</v>
+        <v>0.1121308358804472</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02991128446553057</v>
+        <v>0.03271428751444495</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>96</v>
+      </c>
+      <c r="J81" t="n">
+        <v>208</v>
+      </c>
+      <c r="K81" t="n">
+        <v>101.3315605816281</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3331,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4210288560.704889</v>
+        <v>4890050288.313705</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1732597699436954</v>
+        <v>0.1353967987486068</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01923434197551947</v>
+        <v>0.0244211944398341</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>155</v>
+      </c>
+      <c r="J82" t="n">
+        <v>209</v>
+      </c>
+      <c r="K82" t="n">
+        <v>122.0030649618774</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3368,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2060122183.337142</v>
+        <v>1889711376.748324</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1142997032300428</v>
+        <v>0.09776276721122508</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03562278536013827</v>
+        <v>0.04002442143685199</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3403,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1762852200.075597</v>
+        <v>2129433742.747445</v>
       </c>
       <c r="F84" t="n">
-        <v>0.114231656387056</v>
+        <v>0.08567145224493161</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04222990091758583</v>
+        <v>0.03223464588017076</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3438,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2889738689.690434</v>
+        <v>2349520650.651675</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1503945879844516</v>
+        <v>0.1766112988004512</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03478395061888256</v>
+        <v>0.03895017082676846</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>30</v>
+      </c>
+      <c r="J85" t="n">
+        <v>205</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3473,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2363973894.816265</v>
+        <v>2262665474.658253</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1150101419805511</v>
+        <v>0.1242883239796381</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02473166597655284</v>
+        <v>0.02073307213067575</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3508,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1073210387.173941</v>
+        <v>954234633.4769484</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1780411246219496</v>
+        <v>0.1562331898752307</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02864583409481078</v>
+        <v>0.03964944709074286</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3543,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3363952378.492778</v>
+        <v>3694658435.719749</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1195575311402343</v>
+        <v>0.1458290053742994</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0302331600319444</v>
+        <v>0.0241742338363778</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>29</v>
+      </c>
+      <c r="J88" t="n">
+        <v>209</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3578,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3244085968.043916</v>
+        <v>2589937060.563983</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1129754613351308</v>
+        <v>0.1240434953417184</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02789459225384883</v>
+        <v>0.02574271953467543</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>14</v>
+      </c>
+      <c r="J89" t="n">
+        <v>190</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1416216428.749313</v>
+        <v>1630992967.789679</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1045843253853828</v>
+        <v>0.1341384025222567</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04175683755978716</v>
+        <v>0.03606062579647001</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3654,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2024450846.224793</v>
+        <v>1794161056.353801</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1515806961641298</v>
+        <v>0.1697853790915891</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05871733182904068</v>
+        <v>0.05115112976477581</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2247325074.997019</v>
+        <v>2918007467.819684</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08140376035810221</v>
+        <v>0.08993655982110131</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04091384978728319</v>
+        <v>0.04337171497549632</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,17 +3724,24 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3322693705.866427</v>
+        <v>3378567113.564025</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09487557763516771</v>
+        <v>0.1098329782798535</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04827762338989798</v>
+        <v>0.03666849384173919</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>94</v>
+      </c>
+      <c r="J93" t="n">
+        <v>207</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3062,17 +3759,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2498264647.219363</v>
+        <v>2048027459.239008</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1605277874671396</v>
+        <v>0.1434531622802153</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04311597424801972</v>
+        <v>0.04064702174269895</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2330070115.998666</v>
+        <v>3243193087.529253</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09963072994043635</v>
+        <v>0.1203819260197304</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04934666235493069</v>
+        <v>0.04540509494904041</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2300631385.274472</v>
+        <v>2174503564.199206</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1039934625408475</v>
+        <v>0.1007179282437104</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03149299040075142</v>
+        <v>0.03338774609688752</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,17 +3864,24 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5344255615.724889</v>
+        <v>4999297182.083924</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1594827536848439</v>
+        <v>0.1148101127667201</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01818732271061041</v>
+        <v>0.02182566424798647</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>100</v>
+      </c>
+      <c r="J97" t="n">
+        <v>209</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3106244516.154706</v>
+        <v>3889386305.03927</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08752854084341721</v>
+        <v>0.1065888372679704</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02670104561504367</v>
+        <v>0.02990554325734079</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>52</v>
+      </c>
+      <c r="J98" t="n">
+        <v>209</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2882911417.182468</v>
+        <v>2340653257.620519</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09784796312357126</v>
+        <v>0.1173564412362108</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02726703519158729</v>
+        <v>0.02758319210912004</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>135</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,16 +3969,25 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4789509531.468059</v>
+        <v>3800017207.334403</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1569559797032149</v>
+        <v>0.1531468657076877</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01705662820950102</v>
+        <v>0.01851385501208355</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>86</v>
+      </c>
+      <c r="J100" t="n">
+        <v>208</v>
+      </c>
+      <c r="K100" t="n">
+        <v>114.7578718154254</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2527947411.69864</v>
+        <v>2354354801.703066</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1861808248922603</v>
+        <v>0.1504263715653146</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0490922609488661</v>
+        <v>0.05700060458938136</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>18</v>
+      </c>
+      <c r="J101" t="n">
+        <v>179</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
